--- a/prep_and_checklists/RiccioDinner  /PREPLIST_RiccioDinner  _08-05-2025_0.xlsx
+++ b/prep_and_checklists/RiccioDinner  /PREPLIST_RiccioDinner  _08-05-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/RiccioDinner  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9BA06-8414-2448-BAD8-871607C601EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5232E6F-1545-AE48-852B-BF3E00D0C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="780" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="194">
   <si>
     <t xml:space="preserve">RiccioDinner  , Guests: 35   , 7:00 PM - 11:00 PM   ,Saturday, August 16, 2025  </t>
   </si>
@@ -573,21 +573,12 @@
     <t>1 quart, * See AM Prep</t>
   </si>
   <si>
-    <t>1x 8quart cambro</t>
-  </si>
-  <si>
-    <t>3 quarts</t>
-  </si>
-  <si>
     <t>2 pints</t>
   </si>
   <si>
     <t>1 pint, * See AM prep</t>
   </si>
   <si>
-    <t>*** Might be switched to summer beans</t>
-  </si>
-  <si>
     <t>1/2 case</t>
   </si>
   <si>
@@ -607,6 +598,24 @@
   </si>
   <si>
     <t>100 pcs, * See AM Prep</t>
+  </si>
+  <si>
+    <t>3 quarts, * See AM Prep</t>
+  </si>
+  <si>
+    <t>Bread and Butter</t>
+  </si>
+  <si>
+    <t>bread rolls</t>
+  </si>
+  <si>
+    <t>2 DZ, 4 types</t>
+  </si>
+  <si>
+    <t>butter ramekins</t>
+  </si>
+  <si>
+    <t>1x 8 quart cambro</t>
   </si>
 </sst>
 </file>
@@ -702,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -738,11 +747,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,6 +791,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,10 +1105,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1102,7 +1139,7 @@
       </c>
       <c r="B3" s="9"/>
       <c r="D3" s="8" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1124,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -1138,10 +1175,10 @@
         <v>152</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1152,10 +1189,10 @@
         <v>153</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1166,10 +1203,10 @@
         <v>154</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1180,10 +1217,10 @@
         <v>155</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1196,7 +1233,7 @@
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -1210,10 +1247,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1224,10 +1261,10 @@
         <v>156</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1238,10 +1275,10 @@
         <v>152</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1252,18 +1289,18 @@
         <v>157</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1273,6 +1310,12 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -1281,6 +1324,12 @@
       <c r="B18" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1289,38 +1338,34 @@
       <c r="B19" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -1329,25 +1374,23 @@
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D23" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>178</v>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1358,10 +1401,10 @@
         <v>161</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1372,10 +1415,10 @@
         <v>155</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1385,27 +1428,25 @@
       <c r="B27" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>177</v>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1415,11 +1456,11 @@
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>180</v>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1430,10 +1471,10 @@
         <v>159</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1444,13 +1485,13 @@
         <v>152</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -1458,13 +1499,13 @@
         <v>163</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -1472,13 +1513,13 @@
         <v>155</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -1486,21 +1527,13 @@
         <v>152</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="D36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -1508,209 +1541,243 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="D39" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D53" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="D41" s="10" t="s">
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="4:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D54" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="D42" s="2" t="s">
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="4:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="D43" s="3" t="s">
+    </row>
+    <row r="56" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="D44" s="3" t="s">
+    <row r="57" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="E57" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="2" t="s">
+    </row>
+    <row r="62" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D63" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>166</v>
-      </c>
+    <row r="66" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D70" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="51" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2231,5 +2298,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>